--- a/01 计划阶段/01 项目信息表/项目信息表 - 模板.xlsx
+++ b/01 计划阶段/01 项目信息表/项目信息表 - 模板.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F832610E-1C6D-9245-BBE8-CC377C1C5D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A38568-21FA-7443-86F9-72DA32A0B845}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="18620" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,10 +207,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,12 +554,13 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
@@ -573,7 +575,7 @@
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="26" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -585,7 +587,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="26" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -597,7 +599,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="26" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -613,39 +615,39 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:8" ht="26" customHeight="1">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:8" ht="26" customHeight="1">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:8" ht="26" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -653,11 +655,11 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:8" ht="26" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -677,23 +679,23 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="31" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1">
       <c r="A11" s="2">
